--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/112.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/112.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1586839401707395</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.760511153680915</v>
+        <v>-1.762275629115893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07315029177392773</v>
+        <v>0.07497615395463654</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2644154229993391</v>
+        <v>-0.2623408657974647</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1705519477551019</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.763161801881185</v>
+        <v>-1.766123318857913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0572542726679121</v>
+        <v>0.05916198384292853</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2237333247902015</v>
+        <v>-0.2217437646208774</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1902885564484342</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.825814058985438</v>
+        <v>-1.829748319779129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09427992445826817</v>
+        <v>0.09425001809496346</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2576770471410508</v>
+        <v>-0.2559896986430165</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2138916652456714</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.001806710957189</v>
+        <v>-2.006069154737671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1633069590037885</v>
+        <v>0.1644323826755185</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2899286989365019</v>
+        <v>-0.2900341582176291</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2380068667778993</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.969662092461987</v>
+        <v>-1.972221447553221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3311729502522643</v>
+        <v>0.3335764774504905</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.310674270955245</v>
+        <v>-0.3107482498539461</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2584673079509848</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.845686050391859</v>
+        <v>-1.844334754976223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4511682979646222</v>
+        <v>0.4556432343264801</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3159204766865402</v>
+        <v>-0.3151208749729194</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2720963547726109</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.576394989024131</v>
+        <v>-1.573011634922895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6320514273462546</v>
+        <v>0.6381507514412949</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3486931288111418</v>
+        <v>-0.3484491558473402</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2743465519623984</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.113086395717077</v>
+        <v>-1.107984999744941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7305677101293434</v>
+        <v>0.7402857041842539</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3355107186702485</v>
+        <v>-0.335905797469695</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2607405845399927</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5517510395736583</v>
+        <v>-0.5492640893620032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6893724816866618</v>
+        <v>0.6994540741585927</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3190527747379285</v>
+        <v>-0.3202584733848449</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2246123685964776</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06220748256232491</v>
+        <v>-0.05822836222367677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6485864982155184</v>
+        <v>0.6578873772032842</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2743868341327789</v>
+        <v>-0.2772940474498213</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1593585375176863</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5790117050157854</v>
+        <v>0.5817646644589403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6136763281241905</v>
+        <v>0.6238665279154911</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2111994105272841</v>
+        <v>-0.2158758213366685</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.06122022989150613</v>
       </c>
       <c r="E13" t="n">
-        <v>1.202518455421899</v>
+        <v>1.204253024493572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4240164681221854</v>
+        <v>0.4323099748723187</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08731308754707087</v>
+        <v>-0.08997632790031164</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06525710571842787</v>
       </c>
       <c r="E14" t="n">
-        <v>1.778544919033977</v>
+        <v>1.773668607796188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1624003239899193</v>
+        <v>0.1698171020894882</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02600527105272954</v>
+        <v>0.02077637953176865</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2098931652940374</v>
       </c>
       <c r="E15" t="n">
-        <v>2.421708020226894</v>
+        <v>2.409794269497769</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04516557753600236</v>
+        <v>-0.03529805166456835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1598079144971371</v>
+        <v>0.1546278175689365</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.369590534031008</v>
       </c>
       <c r="E16" t="n">
-        <v>2.904957074772146</v>
+        <v>2.890022781349245</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3986839761036516</v>
+        <v>-0.3939540486441431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3355345572373885</v>
+        <v>0.3304693637050429</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5438955485560195</v>
       </c>
       <c r="E17" t="n">
-        <v>3.424957901780648</v>
+        <v>3.411097089398474</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7103649464271287</v>
+        <v>-0.7099651455703182</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4976663968269658</v>
+        <v>0.4933095118992055</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7303059110482525</v>
       </c>
       <c r="E18" t="n">
-        <v>3.906267764768457</v>
+        <v>3.889801950740531</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.047332533934301</v>
+        <v>-1.048665728130043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6137928055391667</v>
+        <v>0.6085938203815106</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9205297996884955</v>
       </c>
       <c r="E19" t="n">
-        <v>4.175543085944972</v>
+        <v>4.160338061233208</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.421039301751753</v>
+        <v>-1.422694382857801</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8246499810477281</v>
+        <v>0.8199058874161278</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.101220063034865</v>
       </c>
       <c r="E20" t="n">
-        <v>4.429885687717708</v>
+        <v>4.41316330857301</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.759188977619022</v>
+        <v>-1.760863733964086</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013744768185186</v>
+        <v>1.008975490247645</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.265108107701009</v>
       </c>
       <c r="E21" t="n">
-        <v>4.645211503511642</v>
+        <v>4.627955531884822</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.131234368253942</v>
+        <v>-2.132739130533905</v>
       </c>
       <c r="G21" t="n">
-        <v>1.219255000738689</v>
+        <v>1.213311504536658</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.408368251151902</v>
       </c>
       <c r="E22" t="n">
-        <v>4.735399651123929</v>
+        <v>4.719813713784809</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.413600019452754</v>
+        <v>-2.412372284538139</v>
       </c>
       <c r="G22" t="n">
-        <v>1.376842647125071</v>
+        <v>1.370042884521053</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.530156092568454</v>
       </c>
       <c r="E23" t="n">
-        <v>4.795138398834654</v>
+        <v>4.778807950451159</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.623057104952918</v>
+        <v>-2.622274817449632</v>
       </c>
       <c r="G23" t="n">
-        <v>1.490047676348138</v>
+        <v>1.481777779884824</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.628940454986538</v>
       </c>
       <c r="E24" t="n">
-        <v>4.810847109665235</v>
+        <v>4.793232261678758</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.759058653109783</v>
+        <v>-2.759481277243852</v>
       </c>
       <c r="G24" t="n">
-        <v>1.546698198542871</v>
+        <v>1.539742608045844</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.702493630530738</v>
       </c>
       <c r="E25" t="n">
-        <v>4.873375019258905</v>
+        <v>4.854266427126314</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.952118394413798</v>
+        <v>-2.952240380895698</v>
       </c>
       <c r="G25" t="n">
-        <v>1.651716754316053</v>
+        <v>1.644232293394268</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.750348678078014</v>
       </c>
       <c r="E26" t="n">
-        <v>4.957128576703314</v>
+        <v>4.935951723445335</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.083836249532042</v>
+        <v>-3.084998662653123</v>
       </c>
       <c r="G26" t="n">
-        <v>1.69231385549264</v>
+        <v>1.685010406769805</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.771728816784598</v>
       </c>
       <c r="E27" t="n">
-        <v>4.914710335403382</v>
+        <v>4.893031370045708</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.149007724239937</v>
+        <v>-3.154704886449484</v>
       </c>
       <c r="G27" t="n">
-        <v>1.709527328603185</v>
+        <v>1.703097460492672</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.767527551299674</v>
       </c>
       <c r="E28" t="n">
-        <v>4.9275842377965</v>
+        <v>4.903641832942395</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.171627166022588</v>
+        <v>-3.178780295919339</v>
       </c>
       <c r="G28" t="n">
-        <v>1.734357480241703</v>
+        <v>1.726991070754016</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.741498086500745</v>
       </c>
       <c r="E29" t="n">
-        <v>4.897345756457193</v>
+        <v>4.873620566241827</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.08873459703753</v>
+        <v>-3.095471398876697</v>
       </c>
       <c r="G29" t="n">
-        <v>1.672278166097604</v>
+        <v>1.665524050048103</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.698516383548484</v>
       </c>
       <c r="E30" t="n">
-        <v>4.804763525761407</v>
+        <v>4.778973222458895</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.060601366272962</v>
+        <v>-3.068145639921356</v>
       </c>
       <c r="G30" t="n">
-        <v>1.610252368603629</v>
+        <v>1.602522360698922</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.644269812337906</v>
       </c>
       <c r="E31" t="n">
-        <v>4.662506825616494</v>
+        <v>4.638123695408425</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.012498554916453</v>
+        <v>-3.021165104198334</v>
       </c>
       <c r="G31" t="n">
-        <v>1.551207763325398</v>
+        <v>1.543805151397921</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.582211795252904</v>
       </c>
       <c r="E32" t="n">
-        <v>4.64812501290517</v>
+        <v>4.624275475179221</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.903586662846733</v>
+        <v>-2.913986994190727</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518469739621465</v>
+        <v>1.515151707313763</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.514846341148479</v>
       </c>
       <c r="E33" t="n">
-        <v>4.484472670844416</v>
+        <v>4.459968341164006</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.82555230387957</v>
+        <v>-2.838076774027759</v>
       </c>
       <c r="G33" t="n">
-        <v>1.436786017321566</v>
+        <v>1.433329471331189</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.446058486566502</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357732651197284</v>
+        <v>4.333121288216627</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.731482625114155</v>
+        <v>-2.74264556872242</v>
       </c>
       <c r="G34" t="n">
-        <v>1.371341450296126</v>
+        <v>1.367145115318738</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.377155854191168</v>
       </c>
       <c r="E35" t="n">
-        <v>4.154803810002715</v>
+        <v>4.131064453615258</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.709915415114093</v>
+        <v>-2.721636348500859</v>
       </c>
       <c r="G35" t="n">
-        <v>1.291258505442589</v>
+        <v>1.286889028361859</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.310847022079631</v>
       </c>
       <c r="E36" t="n">
-        <v>3.930918478227147</v>
+        <v>3.911553320977785</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.634638737647449</v>
+        <v>-2.645786728074061</v>
       </c>
       <c r="G36" t="n">
-        <v>1.2985084375153</v>
+        <v>1.295949082424065</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.247184855597158</v>
       </c>
       <c r="E37" t="n">
-        <v>3.706608161288829</v>
+        <v>3.68742873829578</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.57033297345627</v>
+        <v>-2.583760930580086</v>
       </c>
       <c r="G37" t="n">
-        <v>1.191319309373845</v>
+        <v>1.188446724477471</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.185872903350363</v>
       </c>
       <c r="E38" t="n">
-        <v>3.491408267024599</v>
+        <v>3.470713063617737</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.480740592081395</v>
+        <v>-2.495701643829358</v>
       </c>
       <c r="G38" t="n">
-        <v>1.103572465418695</v>
+        <v>1.099840466082091</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.127029905009458</v>
       </c>
       <c r="E39" t="n">
-        <v>3.246555426534185</v>
+        <v>3.228060701858902</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.429147393323401</v>
+        <v>-2.443297825223894</v>
       </c>
       <c r="G39" t="n">
-        <v>1.024756605957806</v>
+        <v>1.019414385060111</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.068120215806609</v>
       </c>
       <c r="E40" t="n">
-        <v>3.035230767346597</v>
+        <v>3.015530344024398</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.384566449750802</v>
+        <v>-2.398766463253616</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9757542426734729</v>
+        <v>0.9710668137302394</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.008180695225218</v>
       </c>
       <c r="E41" t="n">
-        <v>2.812802977277355</v>
+        <v>2.793458282276569</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.369403136545752</v>
+        <v>-2.383052243356111</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9424007774931112</v>
+        <v>0.9347416004488621</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9450354831438471</v>
       </c>
       <c r="E42" t="n">
-        <v>2.538248395967997</v>
+        <v>2.519662378183678</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.341439112836724</v>
+        <v>-2.35483086752075</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8896679888912956</v>
+        <v>0.8831310874805339</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8776461850008642</v>
       </c>
       <c r="E43" t="n">
-        <v>2.372230303167928</v>
+        <v>2.355476443640804</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.339603806541287</v>
+        <v>-2.352258920276545</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8440245824118183</v>
+        <v>0.8378591495136835</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8064117523014531</v>
       </c>
       <c r="E44" t="n">
-        <v>2.162064122053618</v>
+        <v>2.145359057119254</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.286877314015957</v>
+        <v>-2.297438982319884</v>
       </c>
       <c r="G44" t="n">
-        <v>0.747755998933947</v>
+        <v>0.7421178624414478</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7310495832070653</v>
       </c>
       <c r="E45" t="n">
-        <v>2.022853148908421</v>
+        <v>2.006494368180743</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.208613148257083</v>
+        <v>-2.220454494106628</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6880345654335562</v>
+        <v>0.6819604256444569</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6540967335155747</v>
       </c>
       <c r="E46" t="n">
-        <v>1.866531013895565</v>
+        <v>1.850232045894496</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.143641573977594</v>
+        <v>-2.15637932371672</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6386623076557175</v>
+        <v>0.632984820685186</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.577387462496194</v>
       </c>
       <c r="E47" t="n">
-        <v>1.720698142307056</v>
+        <v>1.705109056929694</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.093473649533938</v>
+        <v>-2.103940876690587</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5916211721965252</v>
+        <v>0.5852054702581035</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5022847740477798</v>
       </c>
       <c r="E48" t="n">
-        <v>1.584158279610706</v>
+        <v>1.567336737261366</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.933853944461956</v>
+        <v>-1.944540747286027</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4786742821093518</v>
+        <v>0.4703256846899729</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4309971089385922</v>
       </c>
       <c r="E49" t="n">
-        <v>1.480781425781041</v>
+        <v>1.463386940471547</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.867407514265809</v>
+        <v>-1.877742523816269</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4157670339074485</v>
+        <v>0.4076151888782322</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3649920518223569</v>
       </c>
       <c r="E50" t="n">
-        <v>1.426107871602662</v>
+        <v>1.409446879203694</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.7483431988637</v>
+        <v>-1.756262089062964</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3530565380957078</v>
+        <v>0.3419864616156</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3063427978050597</v>
       </c>
       <c r="E51" t="n">
-        <v>1.296605448397648</v>
+        <v>1.280333238721641</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.699258199575499</v>
+        <v>-1.708524450142596</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3053983871409655</v>
+        <v>0.2959290881072206</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2547176350359968</v>
       </c>
       <c r="E52" t="n">
-        <v>1.161861541518702</v>
+        <v>1.143684768705922</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.641113146225091</v>
+        <v>-1.648588950041708</v>
       </c>
       <c r="G52" t="n">
-        <v>0.261481679637555</v>
+        <v>0.2504446575589946</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2085551106878179</v>
       </c>
       <c r="E53" t="n">
-        <v>1.125371056229588</v>
+        <v>1.107109286384258</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.61918469883669</v>
+        <v>-1.627076830710892</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2319357667116198</v>
+        <v>0.2217046424231653</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1671346238775081</v>
       </c>
       <c r="E54" t="n">
-        <v>1.02833120338228</v>
+        <v>1.010861165154963</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.489197477742315</v>
+        <v>-1.497461865138705</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1959505415604435</v>
+        <v>0.18547859234643</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.128987459355812</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9713469891338309</v>
+        <v>0.9553171784025047</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.451853087079896</v>
+        <v>-1.457217344245289</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1743219448146507</v>
+        <v>0.1642749807633885</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09385025217960309</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8978277040161184</v>
+        <v>0.8805292338730238</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.456858467885632</v>
+        <v>-1.461588395345141</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1841516942271735</v>
+        <v>0.1744132379236862</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06161953263911513</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8571377357113743</v>
+        <v>0.8374861069819353</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.461924448427538</v>
+        <v>-1.466599285217802</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1445131706954583</v>
+        <v>0.1341687170302702</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03282590344144195</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8166177614717307</v>
+        <v>0.7971943655148802</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.456847449751783</v>
+        <v>-1.461015452384987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.133293562398827</v>
+        <v>0.1233756679155114</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.007622892918303441</v>
       </c>
       <c r="E59" t="n">
-        <v>0.786064476308163</v>
+        <v>0.7668299626458687</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.465829589867485</v>
+        <v>-1.469016978588119</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1214411984154328</v>
+        <v>0.1113092373316203</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.01496079157531402</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7791230519832271</v>
+        <v>0.7619001347579549</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.504708649173173</v>
+        <v>-1.507299484646834</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1197034813055169</v>
+        <v>0.1115720985248775</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.03576437573777549</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8196461742611132</v>
+        <v>0.8005627664344637</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.493150626765462</v>
+        <v>-1.493178172100085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1201048561814486</v>
+        <v>0.1142951516047277</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05619905359322309</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7974682448419865</v>
+        <v>0.7796109979108302</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.530257340540565</v>
+        <v>-1.531026248881321</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1325742356603926</v>
+        <v>0.1242823029293806</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.07794855621338719</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7646200397995625</v>
+        <v>0.7458451397206879</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.567298732522134</v>
+        <v>-1.564943212907108</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1137473929505151</v>
+        <v>0.106617086331023</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1017356547481632</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7396671146695827</v>
+        <v>0.7193307876223778</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.554815973880659</v>
+        <v>-1.553314359638938</v>
       </c>
       <c r="G64" t="n">
-        <v>0.09872338043770001</v>
+        <v>0.09097763234177933</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1284279591732135</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7174026141987845</v>
+        <v>0.6976801546088869</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.627092570902105</v>
+        <v>-1.624655202292771</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0764840642728426</v>
+        <v>0.06669838739571622</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1578978451256363</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6777845529156461</v>
+        <v>0.6596392604852919</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.641489336795082</v>
+        <v>-1.639011830698154</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06248473820799428</v>
+        <v>0.0545249235115767</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1883498229029135</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6607426478893236</v>
+        <v>0.6429420656465341</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.717322430021106</v>
+        <v>-1.715095192964466</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05980733168266181</v>
+        <v>0.05242045994639768</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2178517010906133</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6620412136643966</v>
+        <v>0.6456541005925353</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.737248725087212</v>
+        <v>-1.733126369008526</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06219984074703885</v>
+        <v>0.05355847577109808</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2449881749648606</v>
       </c>
       <c r="E69" t="n">
-        <v>0.655792357752833</v>
+        <v>0.6389550752122795</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.794402146391201</v>
+        <v>-1.79025067095877</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07315658785041294</v>
+        <v>0.06365738245336329</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2682690967446447</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5875019641560812</v>
+        <v>0.5697344363148391</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.878173805055505</v>
+        <v>-1.872936256429377</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06346692613968591</v>
+        <v>0.05499240719060301</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2866075424041037</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5060622148199837</v>
+        <v>0.4867930727370207</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.93563652111683</v>
+        <v>-1.928565240214386</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05150123277955808</v>
+        <v>0.04229794297731296</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2995870848320571</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4144747642088606</v>
+        <v>0.3973840645897777</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.983411936496109</v>
+        <v>-1.974866586686567</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06344803791023031</v>
+        <v>0.05546461292699321</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3079336618621864</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3641234665375729</v>
+        <v>0.3479630122191787</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.074760923210355</v>
+        <v>-2.066407603733612</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05990964292554635</v>
+        <v>0.05142095780437175</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3117269399012433</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2495931132143709</v>
+        <v>0.2308795998812271</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.088583172124057</v>
+        <v>-2.080687105202052</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0279664988778702</v>
+        <v>0.01907958691900651</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3110372602004172</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1719058254634542</v>
+        <v>0.1523565079768996</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.110161400257968</v>
+        <v>-2.101677437194157</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02993717081773866</v>
+        <v>0.02211901784223814</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.305636426804709</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1393015933848318</v>
+        <v>0.1180696494576068</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.168718846618157</v>
+        <v>-2.161649139734835</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01954077452154761</v>
+        <v>0.01094190806188196</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2956737318545066</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02643970033020853</v>
+        <v>0.006742425046251722</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.160650424602369</v>
+        <v>-2.152759079737729</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0211037755089992</v>
+        <v>0.01360200037688012</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2815494033119126</v>
       </c>
       <c r="E78" t="n">
-        <v>0.007712020824972946</v>
+        <v>-0.01419045524792613</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.147516022044676</v>
+        <v>-2.139583752682881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05101486087107616</v>
+        <v>0.04450786582361912</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2633896751484062</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.04418024156606813</v>
+        <v>-0.06510052970727558</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.160744078740087</v>
+        <v>-2.149770804435939</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04406556645053363</v>
+        <v>0.03908536995073825</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2419781008736789</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.02379354590698162</v>
+        <v>-0.04463041103476013</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.208541530387064</v>
+        <v>-2.19885580372414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08184045134262884</v>
+        <v>0.07706330330948125</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2187448943100025</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.005937872994946619</v>
+        <v>-0.02404224092814713</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.207434207935229</v>
+        <v>-2.198433966599632</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07779522220088607</v>
+        <v>0.07286224627472972</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1944767835345584</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04703259249418543</v>
+        <v>0.03151276395816065</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.159362089951585</v>
+        <v>-2.148402194809968</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05186483119657854</v>
+        <v>0.04614799374801444</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1693661005985635</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1748319270099522</v>
+        <v>0.1631306688622029</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.120664042844847</v>
+        <v>-2.109372029668636</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07739227330583309</v>
+        <v>0.07179191327224525</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.143184551980416</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2479325230413987</v>
+        <v>0.2348650162963604</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.02812824571314</v>
+        <v>-2.01510717253218</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1168072861223236</v>
+        <v>0.111181741782795</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1163185885252167</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3942769508443302</v>
+        <v>0.3846943224338516</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.878973406769126</v>
+        <v>-1.864787559438404</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1025624130745524</v>
+        <v>0.0991515136386938</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09034346893342572</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5934045358609589</v>
+        <v>0.5861797880941887</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.738518958518102</v>
+        <v>-1.722535581350854</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1772071218639949</v>
+        <v>0.1725999678959478</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06580562862588776</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8358963476694216</v>
+        <v>0.8301968244311917</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.525662778725488</v>
+        <v>-1.509854117680705</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1793509359072064</v>
+        <v>0.1738544611356244</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04320058588061666</v>
       </c>
       <c r="E88" t="n">
-        <v>1.010514880948277</v>
+        <v>1.005578756983878</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.362067101353102</v>
+        <v>-1.346557503941365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.194707066454616</v>
+        <v>0.1902541663604563</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02279692252645596</v>
       </c>
       <c r="E89" t="n">
-        <v>1.210147726102843</v>
+        <v>1.207552168571819</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.171177932417361</v>
+        <v>-1.155115067284487</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2411909991448679</v>
+        <v>0.2381106437244824</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.005471329547378644</v>
       </c>
       <c r="E90" t="n">
-        <v>1.325504439464728</v>
+        <v>1.32415078302041</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9113396428826037</v>
+        <v>-0.8962778539108774</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2311833855716381</v>
+        <v>0.2283438550768117</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.00775763320816442</v>
       </c>
       <c r="E91" t="n">
-        <v>1.475306987277157</v>
+        <v>1.47465691738006</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6145969010298309</v>
+        <v>-0.6014648595008193</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1510028515325811</v>
+        <v>0.1483317410837338</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01679959930519171</v>
       </c>
       <c r="E92" t="n">
-        <v>1.503810899544791</v>
+        <v>1.504473561594859</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4022680176428533</v>
+        <v>-0.3872046546520057</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1520889247262785</v>
+        <v>0.1502567664690845</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02294390226373633</v>
       </c>
       <c r="E93" t="n">
-        <v>1.551420255906773</v>
+        <v>1.553707305690023</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1966712140376788</v>
+        <v>-0.1824326370663927</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1234921453304876</v>
+        <v>0.1212822224841815</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02750462383077736</v>
       </c>
       <c r="E94" t="n">
-        <v>1.502107810855544</v>
+        <v>1.501714306075219</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.009152020040642623</v>
+        <v>0.001371871804373775</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1142683932796656</v>
+        <v>0.1104214905472067</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03108341811849796</v>
       </c>
       <c r="E95" t="n">
-        <v>1.505614725457802</v>
+        <v>1.503538594236806</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1483742396000089</v>
+        <v>0.1589862765158181</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05602653775329756</v>
+        <v>0.0522410217665694</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03319032702658302</v>
       </c>
       <c r="E96" t="n">
-        <v>1.428152522441231</v>
+        <v>1.42331083962411</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2704378484377559</v>
+        <v>0.2818573571627924</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.009600615490213319</v>
+        <v>-0.01370880539680812</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03377582663860983</v>
       </c>
       <c r="E97" t="n">
-        <v>1.382249402806739</v>
+        <v>1.380184289719593</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2945958939114789</v>
+        <v>0.3056864326401635</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02825589011586907</v>
+        <v>-0.03195326103180439</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03006086975389871</v>
       </c>
       <c r="E98" t="n">
-        <v>1.241942912353117</v>
+        <v>1.238336834546218</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3402896690028379</v>
+        <v>0.350152472816908</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08999993818713115</v>
+        <v>-0.09366425470151915</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.022998683750969</v>
       </c>
       <c r="E99" t="n">
-        <v>1.155233346998905</v>
+        <v>1.151413202591508</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3589008710930972</v>
+        <v>0.3678948163522093</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09382323063277052</v>
+        <v>-0.09708932030946944</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.00758669100044245</v>
       </c>
       <c r="E100" t="n">
-        <v>1.050934117964158</v>
+        <v>1.047065178964</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3766794170681885</v>
+        <v>0.3836822281388552</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1475948718546446</v>
+        <v>-0.1518604636733695</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01512633084758673</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9494665493286301</v>
+        <v>0.9463106409904222</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3486776169002492</v>
+        <v>0.3541221490408283</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1585673591492317</v>
+        <v>-0.1624787966656639</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05869350335413874</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9108291019580621</v>
+        <v>0.9092283245116993</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3209528440976589</v>
+        <v>0.326669681546223</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1887428797236872</v>
+        <v>-0.1926684834122111</v>
       </c>
     </row>
   </sheetData>
